--- a/src/main/resources/Test Data.xlsx
+++ b/src/main/resources/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\IdeaProjects\seleniumbasics\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0D841-7D00-47DA-87B4-41F25336C6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3211D3E9-0C2C-4C7A-8289-4593456B94EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
